--- a/patient_data/Max_78267819/patient_ml_data.xlsx
+++ b/patient_data/Max_78267819/patient_ml_data.xlsx
@@ -22,13 +22,13 @@
     <t>Intestinal Signs</t>
   </si>
   <si>
-    <t>Depression, Lethargy</t>
+    <t>Depression</t>
   </si>
   <si>
     <t>Dyspnea</t>
   </si>
   <si>
-    <t/>
+    <t>Tenesmus</t>
   </si>
 </sst>
 </file>

--- a/patient_data/Max_78267819/patient_ml_data.xlsx
+++ b/patient_data/Max_78267819/patient_ml_data.xlsx
@@ -22,10 +22,10 @@
     <t>Intestinal Signs</t>
   </si>
   <si>
-    <t>Depression</t>
-  </si>
-  <si>
-    <t>Dyspnea</t>
+    <t>Lethargy</t>
+  </si>
+  <si>
+    <t>Cough</t>
   </si>
   <si>
     <t>Tenesmus</t>
